--- a/invoice (3).xlsx
+++ b/invoice (3).xlsx
@@ -1362,7 +1362,7 @@
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="5"/>
